--- a/Team-Data/2007-08/12-4-2007-08.xlsx
+++ b/Team-Data/2007-08/12-4-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.412</v>
+        <v>0.438</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="J2" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.444</v>
@@ -693,31 +760,31 @@
         <v>4.3</v>
       </c>
       <c r="M2" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.311</v>
+        <v>0.309</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="P2" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.769</v>
+        <v>0.76</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S2" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.9</v>
@@ -726,37 +793,37 @@
         <v>7.6</v>
       </c>
       <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5.8</v>
       </c>
-      <c r="Y2" t="n">
-        <v>6</v>
-      </c>
       <c r="Z2" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
         <v>24</v>
@@ -765,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
@@ -774,16 +841,16 @@
         <v>27</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AR2" t="n">
         <v>10</v>
@@ -792,28 +859,28 @@
         <v>28</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>24</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>2</v>
       </c>
       <c r="AY2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -941,16 +1008,16 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -962,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
         <v>14</v>
@@ -974,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -983,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="AW3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
@@ -992,13 +1059,13 @@
         <v>20</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>6</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-5.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF4" t="n">
         <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
@@ -1126,10 +1193,10 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
@@ -1141,10 +1208,10 @@
         <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1153,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT4" t="n">
         <v>20</v>
@@ -1162,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
         <v>9</v>
@@ -1183,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="BC4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1317,16 +1384,16 @@
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT5" t="n">
         <v>5</v>
@@ -1344,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
@@ -1356,16 +1423,16 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -1394,67 +1461,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.474</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>35.8</v>
+        <v>36.3</v>
       </c>
       <c r="J6" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.434</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>7.2</v>
       </c>
       <c r="M6" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O6" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.702</v>
+        <v>0.698</v>
       </c>
       <c r="R6" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="V6" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
         <v>5.2</v>
@@ -1463,40 +1530,40 @@
         <v>22.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD6" t="n">
         <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
         <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
         <v>10</v>
@@ -1508,25 +1575,25 @@
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>18</v>
@@ -1541,13 +1608,13 @@
         <v>19</v>
       </c>
       <c r="BA6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
         <v>7</v>
@@ -1678,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>17</v>
@@ -1687,7 +1754,7 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
@@ -1702,13 +1769,13 @@
         <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="n">
         <v>30</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>5.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1860,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -1872,13 +1939,13 @@
         <v>5</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>6</v>
@@ -1890,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -1940,94 +2007,94 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.706</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J9" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.479</v>
+        <v>0.476</v>
       </c>
       <c r="L9" t="n">
         <v>5.6</v>
       </c>
       <c r="M9" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.366</v>
+        <v>0.357</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.735</v>
+        <v>0.726</v>
       </c>
       <c r="R9" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="V9" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
@@ -2039,25 +2106,25 @@
         <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM9" t="n">
         <v>21</v>
       </c>
-      <c r="AM9" t="n">
-        <v>23</v>
-      </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
@@ -2072,28 +2139,28 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>2</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>16</v>
@@ -2242,16 +2309,16 @@
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -2409,10 +2476,10 @@
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
         <v>24</v>
@@ -2421,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="n">
         <v>6</v>
@@ -2430,16 +2497,16 @@
         <v>11</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
         <v>18</v>
@@ -2448,10 +2515,10 @@
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -2486,106 +2553,106 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.474</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>87.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="M12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.333</v>
+        <v>0.337</v>
       </c>
       <c r="O12" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P12" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.748</v>
+        <v>0.744</v>
       </c>
       <c r="R12" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T12" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>102.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
         <v>16</v>
       </c>
-      <c r="AH12" t="n">
-        <v>18</v>
-      </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>8</v>
@@ -2594,16 +2661,16 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
         <v>5</v>
@@ -2621,10 +2688,10 @@
         <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2636,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2735,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="J13" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.419</v>
+        <v>0.421</v>
       </c>
       <c r="L13" t="n">
         <v>5.9</v>
       </c>
       <c r="M13" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
       <c r="O13" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="P13" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>32.6</v>
+        <v>33.2</v>
       </c>
       <c r="T13" t="n">
-        <v>42.4</v>
+        <v>43.4</v>
       </c>
       <c r="U13" t="n">
         <v>20.1</v>
       </c>
       <c r="V13" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W13" t="n">
         <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y13" t="n">
         <v>5.3</v>
@@ -2737,25 +2804,25 @@
         <v>21.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.6</v>
+        <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2764,58 +2831,58 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.556</v>
+        <v>0.529</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>37.7</v>
       </c>
       <c r="J14" t="n">
         <v>81.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.469</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="P14" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.779</v>
+        <v>0.783</v>
       </c>
       <c r="R14" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="S14" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="V14" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>4.6</v>
@@ -2916,28 +2983,28 @@
         <v>5.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.1</v>
+        <v>105.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
@@ -2946,28 +3013,28 @@
         <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR14" t="n">
         <v>16</v>
@@ -2979,10 +3046,10 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -2994,7 +3061,7 @@
         <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
         <v>7</v>
@@ -3003,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>-1</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -3125,7 +3192,7 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ15" t="n">
         <v>16</v>
@@ -3149,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3158,7 +3225,7 @@
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
@@ -3170,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>27</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>23</v>
@@ -3337,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="K17" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="L17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M17" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="O17" t="n">
         <v>17.1</v>
@@ -3435,55 +3502,55 @@
         <v>23.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="R17" t="n">
         <v>11.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
         <v>6.1</v>
       </c>
       <c r="X17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="AA17" t="n">
         <v>21.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.5</v>
+        <v>-4.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>19</v>
@@ -3495,10 +3562,10 @@
         <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
@@ -3507,7 +3574,7 @@
         <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3519,16 +3586,16 @@
         <v>15</v>
       </c>
       <c r="AS17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT17" t="n">
         <v>24</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>22</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW17" t="n">
         <v>26</v>
@@ -3537,10 +3604,10 @@
         <v>6</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3549,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.125</v>
+        <v>0.133</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3602,67 +3669,67 @@
         <v>0.445</v>
       </c>
       <c r="L18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>16.9</v>
+        <v>16.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.352</v>
+        <v>0.363</v>
       </c>
       <c r="O18" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.713</v>
+        <v>0.717</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T18" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="W18" t="n">
         <v>7.7</v>
       </c>
       <c r="X18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y18" t="n">
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3683,10 +3750,10 @@
         <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3698,19 +3765,19 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.471</v>
       </c>
       <c r="H19" t="n">
         <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="J19" t="n">
-        <v>74.59999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.423</v>
+        <v>0.418</v>
       </c>
       <c r="L19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.318</v>
+        <v>0.307</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.744</v>
+        <v>0.748</v>
       </c>
       <c r="R19" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S19" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="T19" t="n">
-        <v>40.4</v>
+        <v>39.9</v>
       </c>
       <c r="U19" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V19" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
@@ -3826,31 +3893,31 @@
         <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>90.59999999999999</v>
+        <v>90</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.7</v>
+        <v>-7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,40 +3926,40 @@
         <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>14</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
         <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3904,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="AZ19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>6</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>7</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
         <v>18</v>
@@ -4041,7 +4108,7 @@
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4077,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4089,13 +4156,13 @@
         <v>4</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4220,7 +4287,7 @@
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -4229,7 +4296,7 @@
         <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN21" t="n">
         <v>25</v>
@@ -4247,10 +4314,10 @@
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4432,13 +4499,13 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
@@ -4578,22 +4645,22 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
@@ -4602,7 +4669,7 @@
         <v>18</v>
       </c>
       <c r="AP23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ23" t="n">
         <v>25</v>
@@ -4626,22 +4693,22 @@
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
         <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB23" t="n">
         <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.778</v>
+        <v>0.765</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>85.40000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.488</v>
       </c>
       <c r="L24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.366</v>
+        <v>0.373</v>
       </c>
       <c r="O24" t="n">
-        <v>17.4</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>22.3</v>
+        <v>21.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.783</v>
+        <v>0.773</v>
       </c>
       <c r="R24" t="n">
         <v>8.5</v>
       </c>
       <c r="S24" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T24" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U24" t="n">
-        <v>26.5</v>
+        <v>25.8</v>
       </c>
       <c r="V24" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
         <v>5.7</v>
@@ -4739,19 +4806,19 @@
         <v>19.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.1</v>
+        <v>108.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
         <v>3</v>
@@ -4772,22 +4839,22 @@
         <v>2</v>
       </c>
       <c r="AL24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM24" t="n">
         <v>3</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4796,13 +4863,13 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
       </c>
       <c r="AV24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-5.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="n">
         <v>26</v>
@@ -4957,10 +5024,10 @@
         <v>18</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>28</v>
@@ -4975,7 +5042,7 @@
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
         <v>29</v>
@@ -4984,7 +5051,7 @@
         <v>17</v>
       </c>
       <c r="AV25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW25" t="n">
         <v>28</v>
@@ -5005,7 +5072,7 @@
         <v>26</v>
       </c>
       <c r="BC25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -5034,49 +5101,49 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.412</v>
+        <v>0.375</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.451</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
         <v>5.2</v>
       </c>
       <c r="M26" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.344</v>
+        <v>0.336</v>
       </c>
       <c r="O26" t="n">
-        <v>24.8</v>
+        <v>24.1</v>
       </c>
       <c r="P26" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.805</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S26" t="n">
         <v>29.6</v>
@@ -5088,10 +5155,10 @@
         <v>16.1</v>
       </c>
       <c r="V26" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W26" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X26" t="n">
         <v>3.6</v>
@@ -5100,31 +5167,31 @@
         <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3</v>
+        <v>-3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
@@ -5133,7 +5200,7 @@
         <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>23</v>
@@ -5142,22 +5209,22 @@
         <v>24</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5166,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
         <v>17</v>
@@ -5175,19 +5242,19 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
         <v>1</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>9.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>2</v>
@@ -5318,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="AL27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,34 +5555,34 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>14</v>
@@ -5533,7 +5600,7 @@
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
@@ -5679,10 +5746,10 @@
         <v>7</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -5762,94 +5829,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.722</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J30" t="n">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.494</v>
+        <v>0.495</v>
       </c>
       <c r="L30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O30" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="P30" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S30" t="n">
         <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U30" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="V30" t="n">
         <v>16.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AB30" t="n">
         <v>107.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF30" t="n">
         <v>5</v>
       </c>
-      <c r="AF30" t="n">
-        <v>6</v>
-      </c>
       <c r="AG30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH30" t="n">
         <v>19</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>1</v>
@@ -5870,22 +5937,22 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>19</v>
@@ -5894,19 +5961,19 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
         <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA30" t="n">
         <v>4</v>
@@ -5915,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE31" t="n">
         <v>16</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>17</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI31" t="n">
         <v>13</v>
@@ -6061,7 +6128,7 @@
         <v>10</v>
       </c>
       <c r="AQ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR31" t="n">
         <v>9</v>
@@ -6082,7 +6149,7 @@
         <v>16</v>
       </c>
       <c r="AX31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-4-2007-08</t>
+          <t>2007-12-04</t>
         </is>
       </c>
     </row>
